--- a/Manuscript/TableS9_Gene_type_enrichment_ADDIS.xlsx
+++ b/Manuscript/TableS9_Gene_type_enrichment_ADDIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruin\Documents\GitHub\MRPC_support\Manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA90BC-D720-4651-AEB1-9487F6B987DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16847C0-4443-4CA0-8542-03644B5670F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="1800" windowWidth="16104" windowHeight="10560" activeTab="2" xr2:uid="{87C39FA6-D5B3-48D3-9926-A890F1182C67}"/>
+    <workbookView xWindow="2688" yWindow="2400" windowWidth="16104" windowHeight="10560" xr2:uid="{87C39FA6-D5B3-48D3-9926-A890F1182C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudogene" sheetId="1" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301C01D-6862-4EB8-92B3-503C10D381C4}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,22 +542,22 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B6</f>
-        <v>0.80136986301369861</v>
+        <v>0.814868804664723</v>
       </c>
       <c r="D4">
-        <v>1969</v>
+        <v>1954</v>
       </c>
       <c r="E4" s="3">
         <f>D4/D6</f>
-        <v>0.6913623595505618</v>
+        <v>0.69389204545454541</v>
       </c>
       <c r="F4" s="2">
         <f>B4+D4</f>
-        <v>2554</v>
+        <v>2513</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -566,22 +566,22 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B6</f>
-        <v>0.19863013698630136</v>
+        <v>0.18513119533527697</v>
       </c>
       <c r="D5">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="E5" s="3">
         <f>D5/D6</f>
-        <v>0.3086376404494382</v>
+        <v>0.30610795454545453</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F6" si="0">B5+D5</f>
-        <v>1024</v>
+        <v>989</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -590,22 +590,22 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="C6" s="3">
         <f>B6/F6</f>
-        <v>0.20402459474566798</v>
+        <v>0.19588806396344946</v>
       </c>
       <c r="D6">
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="E6" s="3">
         <f>D6/F6</f>
-        <v>0.79597540525433208</v>
+        <v>0.80411193603655051</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>3578</v>
+        <v>3502</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -644,22 +644,22 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1969</v>
+        <v>1954</v>
       </c>
       <c r="C9" s="3">
         <f>B9/F9</f>
-        <v>0.6913623595505618</v>
+        <v>0.69389204545454541</v>
       </c>
       <c r="D9">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="E9" s="3">
         <f>D9/F9</f>
-        <v>0.3086376404494382</v>
+        <v>0.30610795454545453</v>
       </c>
       <c r="F9" s="2">
         <f>B9+D9</f>
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -667,14 +667,14 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>57360</v>
       </c>
       <c r="C10" s="3">
         <f>B10/F10</f>
         <v>0.75163141756427387</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>18954</v>
       </c>
       <c r="E10" s="3">
@@ -722,22 +722,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="C13" s="3">
         <f>B13/F13</f>
-        <v>0.80136986301369861</v>
+        <v>0.814868804664723</v>
       </c>
       <c r="D13">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E13" s="3">
         <f>D13/F13</f>
-        <v>0.19863013698630136</v>
+        <v>0.18513119533527697</v>
       </c>
       <c r="F13" s="2">
         <f>B13+D13</f>
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -745,14 +745,14 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>57360</v>
       </c>
       <c r="C14" s="3">
         <f>B14/F14</f>
         <v>0.75163141756427387</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>18954</v>
       </c>
       <c r="E14" s="3">
@@ -790,7 +790,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,22 +837,22 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B5</f>
-        <v>0.26438356164383564</v>
+        <v>0.27259475218658891</v>
       </c>
       <c r="D3">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E3" s="3">
         <f>D3/D5</f>
-        <v>0.20224719101123595</v>
+        <v>0.203125</v>
       </c>
       <c r="F3" s="2">
         <f>B3+D3</f>
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -861,22 +861,22 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B5</f>
-        <v>0.73561643835616441</v>
+        <v>0.72740524781341109</v>
       </c>
       <c r="D4">
-        <v>2272</v>
+        <v>2244</v>
       </c>
       <c r="E4" s="3">
         <f>D4/D5</f>
-        <v>0.797752808988764</v>
+        <v>0.796875</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F5" si="0">B4+D4</f>
-        <v>2809</v>
+        <v>2743</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -885,22 +885,22 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="C5" s="3">
         <f>B5/F5</f>
-        <v>0.20402459474566798</v>
+        <v>0.19588806396344946</v>
       </c>
       <c r="D5">
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="E5" s="3">
         <f>D5/F5</f>
-        <v>0.79597540525433208</v>
+        <v>0.80411193603655051</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>3578</v>
+        <v>3502</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -939,22 +939,22 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C8" s="3">
         <f>B8/F8</f>
-        <v>0.20224719101123595</v>
+        <v>0.203125</v>
       </c>
       <c r="D8">
-        <v>2272</v>
+        <v>2244</v>
       </c>
       <c r="E8" s="3">
         <f>D8/F8</f>
-        <v>0.797752808988764</v>
+        <v>0.796875</v>
       </c>
       <c r="F8" s="2">
         <f>B8+D8</f>
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1017,22 +1017,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C12" s="3">
         <f>B12/F12</f>
-        <v>0.26438356164383564</v>
+        <v>0.27259475218658891</v>
       </c>
       <c r="D12">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="E12" s="3">
         <f>D12/F12</f>
-        <v>0.73561643835616441</v>
+        <v>0.72740524781341109</v>
       </c>
       <c r="F12" s="2">
         <f>B12+D12</f>
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF77993-DBD7-4924-A7C8-72B40AA11D1B}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,22 +1122,22 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B5</f>
-        <v>0.49589041095890413</v>
+        <v>0.49125364431486879</v>
       </c>
       <c r="D3">
-        <v>2161</v>
+        <v>2139</v>
       </c>
       <c r="E3" s="3">
         <f>D3/D5</f>
-        <v>0.75877808988764039</v>
+        <v>0.75958806818181823</v>
       </c>
       <c r="F3" s="2">
         <f>B3+D3</f>
-        <v>2523</v>
+        <v>2476</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1146,22 +1146,22 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B5</f>
-        <v>0.50410958904109593</v>
+        <v>0.50874635568513116</v>
       </c>
       <c r="D4">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="E4" s="3">
         <f>D4/D5</f>
-        <v>0.24122191011235955</v>
+        <v>0.24041193181818182</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F5" si="0">B4+D4</f>
-        <v>1055</v>
+        <v>1026</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1170,22 +1170,22 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="C5" s="3">
         <f>B5/F5</f>
-        <v>0.20402459474566798</v>
+        <v>0.19588806396344946</v>
       </c>
       <c r="D5">
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="E5" s="3">
         <f>D5/F5</f>
-        <v>0.79597540525433208</v>
+        <v>0.80411193603655051</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>3578</v>
+        <v>3502</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1224,22 +1224,22 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>2161</v>
+        <v>2139</v>
       </c>
       <c r="C8" s="3">
         <f>B8/F8</f>
-        <v>0.75877808988764039</v>
+        <v>0.75958806818181823</v>
       </c>
       <c r="D8">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="E8" s="3">
         <f>D8/F8</f>
-        <v>0.24122191011235955</v>
+        <v>0.24041193181818182</v>
       </c>
       <c r="F8" s="2">
         <f>B8+D8</f>
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1302,22 +1302,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C12" s="3">
         <f>B12/F12</f>
-        <v>0.49589041095890413</v>
+        <v>0.49125364431486879</v>
       </c>
       <c r="D12">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="E12" s="3">
         <f>D12/F12</f>
-        <v>0.50410958904109593</v>
+        <v>0.50874635568513116</v>
       </c>
       <c r="F12" s="2">
         <f>B12+D12</f>
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="G12" s="2"/>
     </row>
